--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\课题组\基于激励机制的协同存储方案\期刊论文\PeerJ ComputerScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4546A-A87B-42CC-9837-0936BB7A3B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA9CDF-FAC9-4194-93E0-5B962970F602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig.7" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>layerChain</t>
   </si>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>90 blocks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoVBlockSecure model</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AI16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,10 +523,13 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>665</v>
@@ -536,10 +543,13 @@
       <c r="E2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>975</v>
@@ -553,10 +563,13 @@
       <c r="E3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>755</v>
@@ -570,10 +583,13 @@
       <c r="E4">
         <v>18000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>815</v>
@@ -587,10 +603,13 @@
       <c r="E5">
         <v>24000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>555</v>
@@ -604,10 +623,13 @@
       <c r="E6">
         <v>30000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>545</v>
@@ -621,10 +643,13 @@
       <c r="E7">
         <v>36000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B8">
         <v>645</v>
@@ -638,10 +663,13 @@
       <c r="E8">
         <v>42000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>955</v>
@@ -655,10 +683,13 @@
       <c r="E9">
         <v>48000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <v>725</v>
@@ -672,10 +703,13 @@
       <c r="E10">
         <v>54000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B11">
         <v>675</v>
@@ -688,6 +722,9 @@
       </c>
       <c r="E11">
         <v>60000</v>
+      </c>
+      <c r="F11">
+        <v>2240</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +738,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -1694,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6D278D-F7E9-4AC1-A745-FC1A2FA45D79}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
